--- a/mlx90640-breakout/output/mlx90640-breakout-BOM.xlsx
+++ b/mlx90640-breakout/output/mlx90640-breakout-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kva\githome\github\melexis\mlx-i2c-stick\mlx90640-breakout\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kva\githome\github\mlx-kva\mlx-i2c-stick\mlx90640-breakout\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62CC44A2-026B-4A89-96E8-8DF77102A159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFEDDE-83DB-47AB-AF41-21CFB966E44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mlx90640-breakout" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -137,12 +137,15 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/14417</t>
+  </si>
+  <si>
+    <t>MLX90640ESF-BAB-000-TU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,10 +641,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1101,7 +1104,7 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1135,7 +1138,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
@@ -1147,12 +1150,12 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" t="s">
         <v>27</v>
       </c>
@@ -1164,19 +1167,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
+      <c r="C9" s="3"/>
       <c r="D9" t="s">
         <v>32</v>
       </c>
@@ -1188,7 +1191,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>35</v>
       </c>
@@ -1204,8 +1207,8 @@
     <mergeCell ref="C6:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
